--- a/I2C寄存器一览表.xls.xlsx
+++ b/I2C寄存器一览表.xls.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="24">
   <si>
     <t>IIC寄存器</t>
   </si>
@@ -49,103 +49,43 @@
     <t>0x0A</t>
   </si>
   <si>
-    <t>REG_AVERAGE_WIND_DIRECTION</t>
+    <t>REG_TIME_RAINFALL</t>
   </si>
   <si>
     <t>0x0C</t>
   </si>
   <si>
-    <t>REG_REAL_TIME_WIND_DIRECTION</t>
-  </si>
-  <si>
-    <t>0x0E</t>
-  </si>
-  <si>
-    <t>REG_AVERAGE_WIND_SPEED</t>
+    <t>REG_CUMULATIVE_RAINFALL</t>
   </si>
   <si>
     <t>0x10</t>
   </si>
   <si>
-    <t>REG_REAL_TIME_WIND_SPEED</t>
-  </si>
-  <si>
-    <t>0x12</t>
-  </si>
-  <si>
-    <t>REG_MAX_WIND_SPEED_MINUTE</t>
+    <t>REG_RAW_DATA</t>
   </si>
   <si>
     <t>0x14</t>
   </si>
   <si>
-    <t>REG_MAX_WIND_SPEED</t>
-  </si>
-  <si>
-    <t>0x16</t>
-  </si>
-  <si>
-    <t>REG_TIME_RAINFALL</t>
+    <t>REG_SYS_TIME</t>
   </si>
   <si>
     <t>0x18</t>
   </si>
   <si>
-    <t>REG_CUMULATIVE_RAINFALL</t>
-  </si>
-  <si>
-    <t>0x1C</t>
-  </si>
-  <si>
-    <t>REG_RAW_DATA</t>
-  </si>
-  <si>
-    <t>0x20</t>
-  </si>
-  <si>
-    <t>REG_WIND_DIRECTION_MINUTE</t>
+    <t>REG_RAIN_HOUR</t>
   </si>
   <si>
     <t>R/W</t>
   </si>
   <si>
-    <t>0x30</t>
-  </si>
-  <si>
-    <t>REG_WIND_SPEED_AVERAGE_MINUTE</t>
-  </si>
-  <si>
-    <t>0x32</t>
-  </si>
-  <si>
-    <t>REG_WIND_SPEED_MAX_MINUTE</t>
-  </si>
-  <si>
-    <t>0x34</t>
-  </si>
-  <si>
-    <t>REG_RAIN_HOUR</t>
-  </si>
-  <si>
-    <t>0x36</t>
-  </si>
-  <si>
-    <t>REG_RADIUS_ANEMOMETER</t>
-  </si>
-  <si>
-    <t>0x38</t>
+    <t>0x26</t>
   </si>
   <si>
     <t>REG_BASE_RAINFALL</t>
   </si>
   <si>
-    <t>0x3A</t>
-  </si>
-  <si>
-    <t>REG_RAW_TYPE</t>
-  </si>
-  <si>
-    <t>0x3C</t>
+    <t>0x28</t>
   </si>
 </sst>
 </file>
@@ -1096,10 +1036,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:D20"/>
+  <dimension ref="A1:D10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B26" sqref="B26"/>
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="B23" sqref="B23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="3"/>
@@ -1175,7 +1115,7 @@
         <v>5</v>
       </c>
       <c r="C5" s="1">
-        <v>16</v>
+        <v>32</v>
       </c>
       <c r="D5" s="1" t="s">
         <v>12</v>
@@ -1189,7 +1129,7 @@
         <v>5</v>
       </c>
       <c r="C6" s="1">
-        <v>16</v>
+        <v>32</v>
       </c>
       <c r="D6" s="1" t="s">
         <v>14</v>
@@ -1203,7 +1143,7 @@
         <v>5</v>
       </c>
       <c r="C7" s="1">
-        <v>16</v>
+        <v>32</v>
       </c>
       <c r="D7" s="1" t="s">
         <v>16</v>
@@ -1228,167 +1168,27 @@
         <v>19</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>5</v>
+        <v>20</v>
       </c>
       <c r="C9" s="1">
         <v>16</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="10" ht="14.25" spans="1:4">
       <c r="A10" s="2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>5</v>
+        <v>20</v>
       </c>
       <c r="C10" s="1">
         <v>16</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="11" ht="14.25" spans="1:4">
-      <c r="A11" s="2" t="s">
         <v>23</v>
-      </c>
-      <c r="B11" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="C11" s="1">
-        <v>32</v>
-      </c>
-      <c r="D11" s="1" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="12" ht="14.25" spans="1:4">
-      <c r="A12" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="B12" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="C12" s="1">
-        <v>32</v>
-      </c>
-      <c r="D12" s="1" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="13" ht="14.25" spans="1:4">
-      <c r="A13" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="B13" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="C13" s="1">
-        <v>32</v>
-      </c>
-      <c r="D13" s="1" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="14" ht="14.25" spans="1:4">
-      <c r="A14" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="B14" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="C14" s="1">
-        <v>16</v>
-      </c>
-      <c r="D14" s="1" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="15" ht="14.25" spans="1:4">
-      <c r="A15" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="B15" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="C15" s="1">
-        <v>16</v>
-      </c>
-      <c r="D15" s="1" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="16" ht="14.25" spans="1:4">
-      <c r="A16" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="B16" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="C16" s="1">
-        <v>16</v>
-      </c>
-      <c r="D16" s="1" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="17" ht="14.25" spans="1:4">
-      <c r="A17" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="B17" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="C17" s="1">
-        <v>16</v>
-      </c>
-      <c r="D17" s="1" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="18" ht="14.25" spans="1:4">
-      <c r="A18" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="B18" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="C18" s="1">
-        <v>16</v>
-      </c>
-      <c r="D18" s="1" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="19" ht="14.25" spans="1:4">
-      <c r="A19" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="B19" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="C19" s="1">
-        <v>16</v>
-      </c>
-      <c r="D19" s="1" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="20" ht="14.25" spans="1:4">
-      <c r="A20" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="B20" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="C20" s="1">
-        <v>16</v>
-      </c>
-      <c r="D20" s="1" t="s">
-        <v>43</v>
       </c>
     </row>
   </sheetData>
